--- a/DOCS/Lab02/Lab02_BBT_TCs_Form.xlsx
+++ b/DOCS/Lab02/Lab02_BBT_TCs_Form.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26404"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="268" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8FED11F-DBAA-4A5A-97AF-DEB4DDC211D5}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92404FF1-8158-48CE-B8D8-2635C856735D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>length&lt;5</t>
+    <t>length&lt;6</t>
   </si>
   <si>
     <t>u@a.r</t>
@@ -316,7 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -330,53 +330,49 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -695,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -707,34 +703,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18.75">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:16" ht="18.75">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="12"/>
     </row>
     <row r="3" spans="1:16" ht="18.75">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:16" ht="18.75">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="6" spans="1:16" ht="16.5">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:16" ht="17.25" customHeight="1">
       <c r="A7" s="22" t="s">
@@ -742,132 +738,117 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="1:16" ht="17.25" customHeight="1">
       <c r="A8" s="22"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" spans="1:16" ht="17.25" customHeight="1">
       <c r="A9" s="22"/>
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="1:16" ht="17.25" customHeight="1">
       <c r="A10" s="22"/>
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
     </row>
     <row r="11" spans="1:16" ht="17.25" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:16" ht="17.25" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
     </row>
     <row r="14" spans="1:16" ht="21">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="17" t="s">
         <v>7</v>
       </c>
     </row>
@@ -877,68 +858,68 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:16" ht="18.75">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" ht="18.75">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="10" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -946,103 +927,103 @@
       <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="21">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18.75">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="18.75">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18.75">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="18.75">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18.75">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18.75">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="21"/>
     </row>
     <row r="35" spans="1:3" ht="18.75">
-      <c r="A35" s="20" t="s">
+      <c r="A35" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="18.75">
-      <c r="A36" s="20" t="s">
+      <c r="A36" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="21">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
@@ -1051,18 +1032,18 @@
       <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="18">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A7:C11"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A7:C11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{997BFC62-631D-45D9-9F57-44DFCCC0ACA7}"/>
